--- a/bda.xlsx
+++ b/bda.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachgillis/Documents/GitHub/bda_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CEFE443E-B13B-A248-AB7B-CE6BA3A23186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0157592D-1F67-2147-9117-F053EE2D1F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880"/>
+    <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880"/>
   </bookViews>
   <sheets>
     <sheet name="bda" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2131,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
